--- a/Test Data Driven/AI-Generated/TC24-Mark Test Results and Verify Organization Home.xlsx
+++ b/Test Data Driven/AI-Generated/TC24-Mark Test Results and Verify Organization Home.xlsx
@@ -456,8 +456,8 @@
     <col width="74" customWidth="1" min="8" max="8"/>
     <col width="51" customWidth="1" min="9" max="9"/>
     <col width="51" customWidth="1" min="10" max="10"/>
-    <col width="65" customWidth="1" min="11" max="11"/>
-    <col width="65" customWidth="1" min="12" max="12"/>
+    <col width="73" customWidth="1" min="11" max="11"/>
+    <col width="73" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
   </cols>
@@ -465,52 +465,52 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class</t>
+          <t>button_testResultDetails_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class_1</t>
+          <t>button_testResultDetails_class_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class_2</t>
+          <t>button_testResultDetails_class_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class_3</t>
+          <t>button_testResultDetails_class_3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class_4</t>
+          <t>button_testResultDetails_class_4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class_5</t>
+          <t>button_testResultDetails_class_5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName</t>
+          <t>button_testResultDetails_internalRoleButtonName</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName_1</t>
+          <t>button_testResultDetails_internalRoleButtonName_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName_2</t>
+          <t>button_testResultDetails_internalRoleButtonName_2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName_3</t>
+          <t>button_testResultDetails_internalRoleButtonName_3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/markTestResultAsPassed-test-data</t>
+          <t>Data Files/AI-Generated/Common/viewTestResultsAndMarkAsPassed-test-data</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/markTestResultAsPassed-test-data</t>
+          <t>Data Files/AI-Generated/Common/viewTestResultsAndMarkAsPassed-test-data</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
